--- a/biology/Zoologie/Calumma_peyrierasi/Calumma_peyrierasi.xlsx
+++ b/biology/Zoologie/Calumma_peyrierasi/Calumma_peyrierasi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calumma peyrierasi est une espèce de sauriens de la famille des Chamaeleonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calumma peyrierasi est une espèce de sauriens de la famille des Chamaeleonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Nord-Est de Madagascar[1]. Elle a été découverte dans le massif de Marojejy.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Nord-Est de Madagascar. Elle a été découverte dans le massif de Marojejy.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'André Peyrieras[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'André Peyrieras.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Brygoo, Blanc &amp; Domergue, 1974 "1973" : Notes sur les Chamaeleo de Madagascar. XII. Caméléons du Marojezy. C. peyrierasi n.sp. et C. gastrotaenia guillaumeti n.subsp. (Reptilia, Squamata, Chamaeleonidae). Bulletin de l'Académie Malgache, vol. 51, no 1, p. 151-166.</t>
         </is>
